--- a/Analisis Requerimientos.xlsx
+++ b/Analisis Requerimientos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ggchavez\Documents\DUOC\5 Semestre\PHP\Examen Final\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BABE1017-79D9-47FE-9C0B-063ADF221544}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D605D1DE-ED49-438B-B8D0-99CE4FA2D592}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{A9C2BB6D-1BDB-4D68-ACE8-B425D0471DB0}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="77">
   <si>
     <t>Cliente</t>
   </si>
@@ -114,27 +114,12 @@
     <t>Plantilla Vista Asociada</t>
   </si>
   <si>
-    <t>frm_empresa_new.php</t>
-  </si>
-  <si>
-    <t>frm_particular_new.php</t>
-  </si>
-  <si>
     <t>crudEditar</t>
   </si>
   <si>
     <t>codigo</t>
   </si>
   <si>
-    <t>1(nro variable)</t>
-  </si>
-  <si>
-    <t>frm_particular_edit.php</t>
-  </si>
-  <si>
-    <t>frm_empresa_edit.php</t>
-  </si>
-  <si>
     <t>manejadorTelefono.php</t>
   </si>
   <si>
@@ -252,7 +237,28 @@
     <t>Realizar funcion, con busqueda con like</t>
   </si>
   <si>
-    <t>Realizar</t>
+    <t>graficoResultado</t>
+  </si>
+  <si>
+    <t>1(nro id AnalisisMuestra)</t>
+  </si>
+  <si>
+    <t>Ver query</t>
+  </si>
+  <si>
+    <t>crudEditarPerfil</t>
+  </si>
+  <si>
+    <t>agregar header('Location: )</t>
+  </si>
+  <si>
+    <t>lista_reporTecnicoXResultado</t>
+  </si>
+  <si>
+    <t>lista_reporRecepcionXMuestra</t>
+  </si>
+  <si>
+    <t>Falta magia</t>
   </si>
 </sst>
 </file>
@@ -276,7 +282,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -301,6 +307,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="16">
     <border>
@@ -525,7 +537,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -533,9 +545,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -557,6 +566,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -874,8 +891,8 @@
   <dimension ref="A1:O41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O41" sqref="A1:O41"/>
+      <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -898,73 +915,71 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="8" t="s">
+      <c r="B1" s="26"/>
+      <c r="C1" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="E1" s="8" t="s">
+      <c r="D1" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="E1" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
-      <c r="M1" s="8"/>
-      <c r="N1" s="9" t="s">
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="O1" s="9" t="s">
-        <v>58</v>
+      <c r="O1" s="8" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="F2" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="G2" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="H2" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="I2" s="11" t="s">
+      <c r="F2" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="I2" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="J2" s="11"/>
-      <c r="K2" s="11"/>
-      <c r="L2" s="11"/>
-      <c r="M2" s="11"/>
-      <c r="N2" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="O2" s="12"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="10"/>
+      <c r="N2" s="10"/>
+      <c r="O2" s="11"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="12" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -988,28 +1003,26 @@
       <c r="H3" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="I3" s="1" t="s">
-        <v>30</v>
+      <c r="I3" s="29" t="s">
+        <v>72</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>21</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="L3" s="1" t="s">
         <v>22</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="N3" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="O3" s="14"/>
+        <v>43</v>
+      </c>
+      <c r="N3" s="5"/>
+      <c r="O3" s="13"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="12" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -1022,7 +1035,7 @@
         <v>13</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>19</v>
@@ -1034,25 +1047,25 @@
         <v>22</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>21</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="L4" s="1" t="s">
         <v>22</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="N4" s="1"/>
-      <c r="O4" s="14"/>
+      <c r="O4" s="13"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="12" t="s">
         <v>0</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -1065,7 +1078,7 @@
         <v>7</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>19</v>
@@ -1083,19 +1096,19 @@
         <v>21</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="L5" s="1" t="s">
         <v>22</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="N5" s="1"/>
-      <c r="O5" s="14"/>
+      <c r="O5" s="13"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="12" t="s">
         <v>0</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -1108,7 +1121,7 @@
         <v>9</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>19</v>
@@ -1120,25 +1133,25 @@
         <v>22</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>21</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="L6" s="1" t="s">
         <v>22</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="N6" s="1"/>
-      <c r="O6" s="14"/>
+      <c r="O6" s="13"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" s="13" t="s">
+      <c r="A7" s="12" t="s">
         <v>0</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -1151,7 +1164,7 @@
         <v>10</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>19</v>
@@ -1163,25 +1176,25 @@
         <v>22</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>21</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="L7" s="1" t="s">
         <v>22</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="N7" s="1"/>
-      <c r="O7" s="14"/>
+      <c r="O7" s="13"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="13" t="s">
+      <c r="A8" s="12" t="s">
         <v>0</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -1194,7 +1207,7 @@
         <v>13</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>19</v>
@@ -1206,89 +1219,107 @@
         <v>22</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="J8" s="3" t="s">
         <v>21</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="L8" s="3" t="s">
         <v>22</v>
       </c>
       <c r="M8" s="3" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="N8" s="1"/>
-      <c r="O8" s="15" t="s">
-        <v>60</v>
+      <c r="O8" s="14" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="16" t="s">
+      <c r="A9" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="17" t="s">
+      <c r="B9" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="17" t="s">
+      <c r="C9" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="17" t="s">
+      <c r="D9" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="E9" s="18"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="18"/>
-      <c r="H9" s="18"/>
-      <c r="I9" s="18"/>
-      <c r="J9" s="18"/>
-      <c r="K9" s="18"/>
-      <c r="L9" s="18"/>
-      <c r="M9" s="18"/>
-      <c r="N9" s="17"/>
-      <c r="O9" s="19"/>
+      <c r="E9" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I9" s="27" t="s">
+        <v>69</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="L9" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="N9" s="16"/>
+      <c r="O9" s="28" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="C10" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="11" t="s">
+      <c r="D10" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="E10" s="11" t="s">
+      <c r="E10" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="F10" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="G10" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="H10" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="I10" s="11" t="s">
+      <c r="F10" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="G10" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="H10" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="I10" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="J10" s="11"/>
-      <c r="K10" s="11"/>
-      <c r="L10" s="11"/>
-      <c r="M10" s="11"/>
-      <c r="N10" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="O10" s="12"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="10"/>
+      <c r="L10" s="10"/>
+      <c r="M10" s="10"/>
+      <c r="N10" s="10"/>
+      <c r="O10" s="11"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" s="13" t="s">
+      <c r="A11" s="12" t="s">
         <v>0</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -1312,28 +1343,28 @@
       <c r="H11" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="I11" s="1" t="s">
-        <v>30</v>
+      <c r="I11" s="3" t="s">
+        <v>72</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>21</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="L11" s="1" t="s">
         <v>22</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="N11" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="O11" s="14"/>
+        <v>44</v>
+      </c>
+      <c r="N11" s="5"/>
+      <c r="O11" s="13" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="13" t="s">
+      <c r="A12" s="12" t="s">
         <v>0</v>
       </c>
       <c r="B12" s="1" t="s">
@@ -1346,7 +1377,7 @@
         <v>13</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>19</v>
@@ -1358,25 +1389,25 @@
         <v>22</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>21</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="L12" s="1" t="s">
         <v>22</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="N12" s="1"/>
-      <c r="O12" s="14"/>
+      <c r="O12" s="13"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" s="13" t="s">
+      <c r="A13" s="12" t="s">
         <v>0</v>
       </c>
       <c r="B13" s="1" t="s">
@@ -1389,7 +1420,7 @@
         <v>7</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>19</v>
@@ -1407,19 +1438,19 @@
         <v>21</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="L13" s="1" t="s">
         <v>22</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="N13" s="1"/>
-      <c r="O13" s="14"/>
+      <c r="O13" s="13"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" s="13" t="s">
+      <c r="A14" s="12" t="s">
         <v>0</v>
       </c>
       <c r="B14" s="1" t="s">
@@ -1432,7 +1463,7 @@
         <v>9</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>19</v>
@@ -1444,25 +1475,25 @@
         <v>22</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="J14" s="1" t="s">
         <v>21</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="L14" s="1" t="s">
         <v>22</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="N14" s="1"/>
-      <c r="O14" s="14"/>
+      <c r="O14" s="13"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" s="13" t="s">
+      <c r="A15" s="12" t="s">
         <v>0</v>
       </c>
       <c r="B15" s="1" t="s">
@@ -1475,7 +1506,7 @@
         <v>10</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>19</v>
@@ -1487,25 +1518,25 @@
         <v>22</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="J15" s="1" t="s">
         <v>21</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="L15" s="1" t="s">
         <v>22</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="N15" s="1"/>
-      <c r="O15" s="14"/>
+      <c r="O15" s="13"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" s="13" t="s">
+      <c r="A16" s="12" t="s">
         <v>0</v>
       </c>
       <c r="B16" s="1" t="s">
@@ -1518,7 +1549,7 @@
         <v>13</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="F16" s="3" t="s">
         <v>19</v>
@@ -1530,108 +1561,128 @@
         <v>22</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="J16" s="3" t="s">
         <v>21</v>
       </c>
       <c r="K16" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="L16" s="3" t="s">
         <v>22</v>
       </c>
       <c r="M16" s="3" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="N16" s="1"/>
-      <c r="O16" s="15" t="s">
-        <v>60</v>
+      <c r="O16" s="14" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="17" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="16" t="s">
+      <c r="A17" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B17" s="17" t="s">
+      <c r="B17" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C17" s="17" t="s">
+      <c r="C17" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="D17" s="17" t="s">
+      <c r="D17" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="E17" s="18"/>
-      <c r="F17" s="18"/>
-      <c r="G17" s="18"/>
-      <c r="H17" s="18"/>
-      <c r="I17" s="18"/>
-      <c r="J17" s="18"/>
-      <c r="K17" s="18"/>
-      <c r="L17" s="18"/>
-      <c r="M17" s="18"/>
-      <c r="N17" s="17"/>
-      <c r="O17" s="19"/>
+      <c r="E17" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I17" s="27" t="s">
+        <v>69</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K17" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="L17" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M17" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="N17" s="16"/>
+      <c r="O17" s="28" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A18" s="10" t="s">
+      <c r="A18" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B18" s="11" t="s">
+      <c r="B18" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C18" s="11" t="s">
+      <c r="C18" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D18" s="11" t="s">
+      <c r="D18" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="E18" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="F18" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="G18" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="H18" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="I18" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="J18" s="11" t="s">
+      <c r="E18" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="F18" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="G18" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="H18" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="I18" s="30" t="s">
+        <v>72</v>
+      </c>
+      <c r="J18" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="K18" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="L18" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="M18" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="N18" s="11"/>
-      <c r="O18" s="12"/>
+      <c r="K18" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="L18" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="M18" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="N18" s="10"/>
+      <c r="O18" s="11"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A19" s="13" t="s">
+      <c r="A19" s="12" t="s">
         <v>3</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
@@ -1642,23 +1693,23 @@
       <c r="L19" s="1"/>
       <c r="M19" s="1"/>
       <c r="N19" s="1"/>
-      <c r="O19" s="14"/>
+      <c r="O19" s="13"/>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A20" s="13" t="s">
+      <c r="A20" s="12" t="s">
         <v>3</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>7</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="F20" s="3" t="s">
         <v>19</v>
@@ -1676,34 +1727,34 @@
         <v>21</v>
       </c>
       <c r="K20" s="3" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="L20" s="3" t="s">
         <v>22</v>
       </c>
       <c r="M20" s="3" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="N20" s="1"/>
-      <c r="O20" s="15" t="s">
-        <v>59</v>
+      <c r="O20" s="14" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A21" s="13" t="s">
+      <c r="A21" s="12" t="s">
         <v>3</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>19</v>
@@ -1715,38 +1766,38 @@
         <v>22</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="J21" s="1" t="s">
         <v>21</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="L21" s="1" t="s">
         <v>22</v>
       </c>
       <c r="M21" s="1" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="N21" s="1"/>
-      <c r="O21" s="14"/>
+      <c r="O21" s="13"/>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A22" s="13" t="s">
+      <c r="A22" s="12" t="s">
         <v>3</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>19</v>
@@ -1758,38 +1809,38 @@
         <v>22</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="J22" s="1" t="s">
         <v>21</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="L22" s="1" t="s">
         <v>22</v>
       </c>
       <c r="M22" s="1" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="N22" s="1"/>
-      <c r="O22" s="14"/>
+      <c r="O22" s="13"/>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A23" s="13" t="s">
+      <c r="A23" s="12" t="s">
         <v>3</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
@@ -1800,25 +1851,25 @@
       <c r="L23" s="2"/>
       <c r="M23" s="2"/>
       <c r="N23" s="1"/>
-      <c r="O23" s="14" t="s">
-        <v>73</v>
+      <c r="O23" s="13" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A24" s="13" t="s">
+      <c r="A24" s="12" t="s">
         <v>3</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
@@ -1829,97 +1880,97 @@
       <c r="L24" s="2"/>
       <c r="M24" s="2"/>
       <c r="N24" s="1"/>
-      <c r="O24" s="14" t="s">
-        <v>73</v>
+      <c r="O24" s="13" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="25" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="16" t="s">
+      <c r="A25" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B25" s="17" t="s">
+      <c r="B25" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="C25" s="17" t="s">
+      <c r="C25" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="D25" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="E25" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="F25" s="17"/>
+      <c r="G25" s="17"/>
+      <c r="H25" s="17"/>
+      <c r="I25" s="17"/>
+      <c r="J25" s="17"/>
+      <c r="K25" s="17"/>
+      <c r="L25" s="17"/>
+      <c r="M25" s="17"/>
+      <c r="N25" s="16"/>
+      <c r="O25" s="13" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A26" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D26" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E26" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="F26" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="G26" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="H26" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="I26" s="30" t="s">
+        <v>72</v>
+      </c>
+      <c r="J26" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="K26" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="L26" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="M26" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="N26" s="10"/>
+      <c r="O26" s="11"/>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A27" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="B27" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C27" s="1" t="s">
         <v>56</v>
-      </c>
-      <c r="D25" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="E25" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="F25" s="18"/>
-      <c r="G25" s="18"/>
-      <c r="H25" s="18"/>
-      <c r="I25" s="18"/>
-      <c r="J25" s="18"/>
-      <c r="K25" s="18"/>
-      <c r="L25" s="18"/>
-      <c r="M25" s="18"/>
-      <c r="N25" s="17"/>
-      <c r="O25" s="14" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A26" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="B26" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C26" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D26" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E26" s="20" t="s">
-        <v>44</v>
-      </c>
-      <c r="F26" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="G26" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="H26" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="I26" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="J26" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="K26" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="L26" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="M26" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="N26" s="11"/>
-      <c r="O26" s="12"/>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A27" s="23" t="s">
-        <v>3</v>
-      </c>
-      <c r="B27" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>61</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
@@ -1930,23 +1981,23 @@
       <c r="L27" s="1"/>
       <c r="M27" s="1"/>
       <c r="N27" s="1"/>
-      <c r="O27" s="14"/>
+      <c r="O27" s="13"/>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A28" s="23" t="s">
+      <c r="A28" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="B28" s="13" t="s">
+      <c r="B28" s="12" t="s">
         <v>5</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>7</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="F28" s="3" t="s">
         <v>19</v>
@@ -1964,34 +2015,34 @@
         <v>21</v>
       </c>
       <c r="K28" s="3" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="L28" s="3" t="s">
         <v>22</v>
       </c>
       <c r="M28" s="3" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="N28" s="1"/>
-      <c r="O28" s="15" t="s">
-        <v>63</v>
+      <c r="O28" s="14" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A29" s="23" t="s">
+      <c r="A29" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="B29" s="13" t="s">
+      <c r="B29" s="12" t="s">
         <v>5</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>19</v>
@@ -2003,38 +2054,38 @@
         <v>22</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="J29" s="1" t="s">
         <v>21</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="L29" s="1" t="s">
         <v>22</v>
       </c>
       <c r="M29" s="1" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="N29" s="1"/>
-      <c r="O29" s="14"/>
+      <c r="O29" s="13"/>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A30" s="23" t="s">
+      <c r="A30" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="B30" s="13" t="s">
+      <c r="B30" s="12" t="s">
         <v>5</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="F30" s="1" t="s">
         <v>19</v>
@@ -2046,84 +2097,84 @@
         <v>22</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="J30" s="1" t="s">
         <v>21</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="L30" s="1" t="s">
         <v>22</v>
       </c>
       <c r="M30" s="1" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="N30" s="1"/>
-      <c r="O30" s="14"/>
+      <c r="O30" s="13"/>
     </row>
     <row r="31" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="24" t="s">
+      <c r="A31" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="B31" s="16" t="s">
+      <c r="B31" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="C31" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="D31" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="E31" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="F31" s="18"/>
-      <c r="G31" s="18"/>
-      <c r="H31" s="18"/>
-      <c r="I31" s="18"/>
-      <c r="J31" s="18"/>
-      <c r="K31" s="18"/>
-      <c r="L31" s="18"/>
-      <c r="M31" s="18"/>
-      <c r="N31" s="17"/>
-      <c r="O31" s="19" t="s">
-        <v>73</v>
+      <c r="C31" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="D31" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="E31" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="F31" s="17"/>
+      <c r="G31" s="17"/>
+      <c r="H31" s="17"/>
+      <c r="I31" s="17"/>
+      <c r="J31" s="17"/>
+      <c r="K31" s="17"/>
+      <c r="L31" s="17"/>
+      <c r="M31" s="17"/>
+      <c r="N31" s="16"/>
+      <c r="O31" s="18" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A32" s="25" t="s">
+      <c r="A32" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="B32" s="10" t="s">
+      <c r="B32" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C32" s="11" t="s">
+      <c r="C32" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D32" s="11" t="s">
+      <c r="D32" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="E32" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="F32" s="11"/>
-      <c r="G32" s="11"/>
-      <c r="H32" s="11"/>
-      <c r="I32" s="11"/>
-      <c r="J32" s="11"/>
-      <c r="K32" s="11"/>
-      <c r="L32" s="11"/>
-      <c r="M32" s="11"/>
-      <c r="N32" s="11"/>
-      <c r="O32" s="12"/>
+      <c r="E32" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="F32" s="10"/>
+      <c r="G32" s="10"/>
+      <c r="H32" s="10"/>
+      <c r="I32" s="10"/>
+      <c r="J32" s="10"/>
+      <c r="K32" s="10"/>
+      <c r="L32" s="10"/>
+      <c r="M32" s="10"/>
+      <c r="N32" s="10"/>
+      <c r="O32" s="11"/>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A33" s="26" t="s">
+      <c r="A33" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="B33" s="13" t="s">
+      <c r="B33" s="12" t="s">
         <v>6</v>
       </c>
       <c r="C33" s="1" t="s">
@@ -2133,7 +2184,7 @@
         <v>7</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="F33" s="1" t="s">
         <v>19</v>
@@ -2152,13 +2203,13 @@
       <c r="L33" s="1"/>
       <c r="M33" s="1"/>
       <c r="N33" s="1"/>
-      <c r="O33" s="14"/>
+      <c r="O33" s="13"/>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A34" s="26" t="s">
+      <c r="A34" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="B34" s="13" t="s">
+      <c r="B34" s="12" t="s">
         <v>6</v>
       </c>
       <c r="C34" s="1" t="s">
@@ -2168,7 +2219,7 @@
         <v>9</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="F34" s="1" t="s">
         <v>19</v>
@@ -2180,28 +2231,28 @@
         <v>22</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="J34" s="1" t="s">
         <v>21</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="L34" s="1" t="s">
         <v>22</v>
       </c>
       <c r="M34" s="1" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="N34" s="1"/>
-      <c r="O34" s="14"/>
+      <c r="O34" s="13"/>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A35" s="26" t="s">
+      <c r="A35" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="B35" s="13" t="s">
+      <c r="B35" s="12" t="s">
         <v>6</v>
       </c>
       <c r="C35" s="1" t="s">
@@ -2211,7 +2262,7 @@
         <v>10</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="F35" s="1" t="s">
         <v>19</v>
@@ -2223,38 +2274,38 @@
         <v>22</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="J35" s="1" t="s">
         <v>21</v>
       </c>
       <c r="K35" s="1" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="L35" s="1" t="s">
         <v>22</v>
       </c>
       <c r="M35" s="1" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="N35" s="1"/>
-      <c r="O35" s="14"/>
+      <c r="O35" s="13"/>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A36" s="26" t="s">
+      <c r="A36" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="B36" s="13" t="s">
+      <c r="B36" s="12" t="s">
         <v>6</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
@@ -2265,23 +2316,23 @@
       <c r="L36" s="1"/>
       <c r="M36" s="1"/>
       <c r="N36" s="1"/>
-      <c r="O36" s="14"/>
+      <c r="O36" s="13"/>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A37" s="26" t="s">
+      <c r="A37" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="B37" s="13" t="s">
+      <c r="B37" s="12" t="s">
         <v>6</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>7</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="F37" s="1" t="s">
         <v>19</v>
@@ -2300,23 +2351,23 @@
       <c r="L37" s="1"/>
       <c r="M37" s="1"/>
       <c r="N37" s="1"/>
-      <c r="O37" s="14"/>
+      <c r="O37" s="13"/>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A38" s="26" t="s">
+      <c r="A38" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="B38" s="13" t="s">
+      <c r="B38" s="12" t="s">
         <v>6</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="F38" s="1" t="s">
         <v>19</v>
@@ -2328,38 +2379,38 @@
         <v>22</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="J38" s="1" t="s">
         <v>21</v>
       </c>
       <c r="K38" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="L38" s="1" t="s">
         <v>22</v>
       </c>
       <c r="M38" s="1" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="N38" s="1"/>
-      <c r="O38" s="14"/>
+      <c r="O38" s="13"/>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A39" s="26" t="s">
+      <c r="A39" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="B39" s="13" t="s">
+      <c r="B39" s="12" t="s">
         <v>6</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="F39" s="1" t="s">
         <v>19</v>
@@ -2371,78 +2422,101 @@
         <v>22</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="J39" s="1" t="s">
         <v>21</v>
       </c>
       <c r="K39" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="L39" s="1" t="s">
         <v>22</v>
       </c>
       <c r="M39" s="1" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="N39" s="1"/>
-      <c r="O39" s="14"/>
+      <c r="O39" s="13"/>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A40" s="26" t="s">
+      <c r="A40" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="B40" s="13" t="s">
+      <c r="B40" s="12" t="s">
         <v>6</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="E40" s="2"/>
-      <c r="F40" s="2"/>
-      <c r="G40" s="2"/>
-      <c r="H40" s="2"/>
-      <c r="I40" s="2"/>
-      <c r="J40" s="2"/>
-      <c r="K40" s="2"/>
-      <c r="L40" s="2"/>
-      <c r="M40" s="2"/>
+        <v>64</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G40" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H40" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I40" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="J40" s="3"/>
+      <c r="K40" s="3"/>
+      <c r="L40" s="3"/>
+      <c r="M40" s="3"/>
       <c r="N40" s="1"/>
-      <c r="O40" s="14" t="s">
+      <c r="O40" s="13" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="B41" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C41" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="D41" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="E41" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="F41" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="G41" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H41" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="I41" s="27" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="41" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="26" t="s">
-        <v>3</v>
-      </c>
-      <c r="B41" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="C41" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="D41" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="E41" s="18"/>
-      <c r="F41" s="18"/>
-      <c r="G41" s="18"/>
-      <c r="H41" s="18"/>
-      <c r="I41" s="18"/>
-      <c r="J41" s="18"/>
-      <c r="K41" s="18"/>
-      <c r="L41" s="18"/>
-      <c r="M41" s="18"/>
-      <c r="N41" s="17"/>
-      <c r="O41" s="19" t="s">
-        <v>74</v>
+      <c r="J41" s="27"/>
+      <c r="K41" s="27"/>
+      <c r="L41" s="27"/>
+      <c r="M41" s="27"/>
+      <c r="N41" s="16"/>
+      <c r="O41" s="31" t="s">
+        <v>76</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:O41" xr:uid="{85A6AFA5-2888-4BBB-AD94-1D6F8D348DE8}">
+    <filterColumn colId="0" showButton="0"/>
+  </autoFilter>
   <mergeCells count="1">
     <mergeCell ref="A1:B1"/>
   </mergeCells>

--- a/Analisis Requerimientos.xlsx
+++ b/Analisis Requerimientos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ggchavez\Documents\DUOC\5 Semestre\PHP\Examen Final\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D605D1DE-ED49-438B-B8D0-99CE4FA2D592}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15AC63D4-539D-4CDF-8FBC-F5D7ADC4A435}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{A9C2BB6D-1BDB-4D68-ACE8-B425D0471DB0}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$O$41</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$O$42</definedName>
   </definedNames>
   <calcPr calcId="179017"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="473" uniqueCount="76">
   <si>
     <t>Cliente</t>
   </si>
@@ -141,12 +141,6 @@
     <t>manejadorAnalisisResultado.php</t>
   </si>
   <si>
-    <t>buscarXEmpresa</t>
-  </si>
-  <si>
-    <t>buscarXParticular</t>
-  </si>
-  <si>
     <t>manejadorEmpleado.php</t>
   </si>
   <si>
@@ -192,21 +186,12 @@
     <t>Obs</t>
   </si>
   <si>
-    <t>Falta ocultar combo o particular o empresa</t>
-  </si>
-  <si>
-    <t>Falta vista que no deje realizar acciones</t>
-  </si>
-  <si>
     <t>Resultados</t>
   </si>
   <si>
     <t>Resultado</t>
   </si>
   <si>
-    <t>Agregar</t>
-  </si>
-  <si>
     <t>ResultadosXAnalisisMuestra</t>
   </si>
   <si>
@@ -243,15 +228,9 @@
     <t>1(nro id AnalisisMuestra)</t>
   </si>
   <si>
-    <t>Ver query</t>
-  </si>
-  <si>
     <t>crudEditarPerfil</t>
   </si>
   <si>
-    <t>agregar header('Location: )</t>
-  </si>
-  <si>
     <t>lista_reporTecnicoXResultado</t>
   </si>
   <si>
@@ -259,6 +238,24 @@
   </si>
   <si>
     <t>Falta magia</t>
+  </si>
+  <si>
+    <t>buscarXParticularRO</t>
+  </si>
+  <si>
+    <t>buscarXEmpresaRO</t>
+  </si>
+  <si>
+    <t>crudIngresoE</t>
+  </si>
+  <si>
+    <t>crudIngresoP</t>
+  </si>
+  <si>
+    <t>Muestra Empresa</t>
+  </si>
+  <si>
+    <t>Muestra Particular</t>
   </si>
 </sst>
 </file>
@@ -537,7 +534,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -554,7 +551,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
@@ -566,14 +562,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -888,11 +887,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86F914EF-8335-43E8-BB77-112789E542B7}">
-  <dimension ref="A1:O41"/>
+  <dimension ref="A1:O42"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E31" sqref="E31"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N29" sqref="N29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -905,7 +904,7 @@
     <col min="6" max="6" width="2.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="2.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="25.7109375" customWidth="1"/>
     <col min="10" max="10" width="2.42578125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="7.140625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="2.140625" bestFit="1" customWidth="1"/>
@@ -915,15 +914,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="26"/>
+      <c r="B1" s="28"/>
       <c r="C1" s="7" t="s">
         <v>24</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="E1" s="7" t="s">
         <v>25</v>
@@ -940,7 +939,7 @@
         <v>27</v>
       </c>
       <c r="O1" s="8" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
@@ -1003,8 +1002,8 @@
       <c r="H3" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="I3" s="29" t="s">
-        <v>72</v>
+      <c r="I3" s="26" t="s">
+        <v>66</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>21</v>
@@ -1016,7 +1015,7 @@
         <v>22</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="N3" s="5"/>
       <c r="O3" s="13"/>
@@ -1059,7 +1058,7 @@
         <v>22</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="N4" s="1"/>
       <c r="O4" s="13"/>
@@ -1102,7 +1101,7 @@
         <v>22</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="N5" s="1"/>
       <c r="O5" s="13"/>
@@ -1145,7 +1144,7 @@
         <v>22</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="N6" s="1"/>
       <c r="O6" s="13"/>
@@ -1188,7 +1187,7 @@
         <v>22</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="N7" s="1"/>
       <c r="O7" s="13"/>
@@ -1206,82 +1205,78 @@
       <c r="D8" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E8" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="F8" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="K8" s="3" t="s">
+      <c r="F8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I8" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K8" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="L8" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="M8" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="N8" s="1"/>
-      <c r="O8" s="14" t="s">
-        <v>55</v>
-      </c>
+      <c r="L8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="N8" s="5"/>
+      <c r="O8" s="13"/>
     </row>
     <row r="9" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="15" t="s">
+      <c r="A9" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="16" t="s">
+      <c r="B9" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="16" t="s">
+      <c r="C9" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="16" t="s">
+      <c r="D9" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E9" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="F9" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="I9" s="27" t="s">
-        <v>69</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="K9" s="3" t="s">
+      <c r="F9" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="I9" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="K9" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="L9" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="M9" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="N9" s="16"/>
-      <c r="O9" s="28" t="s">
-        <v>71</v>
-      </c>
+      <c r="L9" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="M9" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="N9" s="29"/>
+      <c r="O9" s="30"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
@@ -1343,8 +1338,8 @@
       <c r="H11" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="I11" s="3" t="s">
-        <v>72</v>
+      <c r="I11" s="26" t="s">
+        <v>66</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>21</v>
@@ -1356,12 +1351,10 @@
         <v>22</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="N11" s="5"/>
-      <c r="O11" s="13" t="s">
-        <v>73</v>
-      </c>
+      <c r="O11" s="13"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
@@ -1401,7 +1394,7 @@
         <v>22</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="N12" s="1"/>
       <c r="O12" s="13"/>
@@ -1444,7 +1437,7 @@
         <v>22</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="N13" s="1"/>
       <c r="O13" s="13"/>
@@ -1487,7 +1480,7 @@
         <v>22</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="N14" s="1"/>
       <c r="O14" s="13"/>
@@ -1530,7 +1523,7 @@
         <v>22</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="N15" s="1"/>
       <c r="O15" s="13"/>
@@ -1548,84 +1541,80 @@
       <c r="D16" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E16" s="3" t="s">
+      <c r="E16" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="F16" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="H16" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="I16" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="J16" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="K16" s="3" t="s">
+      <c r="F16" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="I16" s="26" t="s">
+        <v>71</v>
+      </c>
+      <c r="J16" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="K16" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="L16" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="M16" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="N16" s="1"/>
-      <c r="O16" s="14" t="s">
-        <v>55</v>
-      </c>
+      <c r="L16" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="M16" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="N16" s="5"/>
+      <c r="O16" s="31"/>
     </row>
     <row r="17" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="15" t="s">
+      <c r="A17" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B17" s="16" t="s">
+      <c r="B17" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="C17" s="16" t="s">
+      <c r="C17" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="D17" s="16" t="s">
+      <c r="D17" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="E17" s="3" t="s">
+      <c r="E17" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="F17" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="I17" s="27" t="s">
-        <v>69</v>
-      </c>
-      <c r="J17" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="K17" s="3" t="s">
+      <c r="F17" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="I17" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="J17" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="K17" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="L17" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="M17" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="N17" s="16"/>
-      <c r="O17" s="28" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="L17" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="M17" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="N17" s="29"/>
+      <c r="O17" s="30"/>
+    </row>
+    <row r="18" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="9" t="s">
         <v>3</v>
       </c>
@@ -1639,7 +1628,7 @@
         <v>9</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F18" s="10" t="s">
         <v>19</v>
@@ -1650,8 +1639,8 @@
       <c r="H18" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="I18" s="30" t="s">
-        <v>72</v>
+      <c r="I18" s="26" t="s">
+        <v>66</v>
       </c>
       <c r="J18" s="10" t="s">
         <v>21</v>
@@ -1663,7 +1652,7 @@
         <v>22</v>
       </c>
       <c r="M18" s="10" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="N18" s="10"/>
       <c r="O18" s="11"/>
@@ -1676,22 +1665,38 @@
         <v>4</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
-      <c r="L19" s="1"/>
-      <c r="M19" s="1"/>
+        <v>40</v>
+      </c>
+      <c r="F19" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="G19" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="H19" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="I19" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="J19" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="K19" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="L19" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="M19" s="32" t="s">
+        <v>45</v>
+      </c>
       <c r="N19" s="1"/>
       <c r="O19" s="13"/>
     </row>
@@ -1703,42 +1708,40 @@
         <v>4</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>41</v>
+        <v>74</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E20" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="I20" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="J20" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="K20" s="3" t="s">
+      <c r="E20" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H20" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="I20" s="26" t="s">
+        <v>72</v>
+      </c>
+      <c r="J20" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="K20" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="L20" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="M20" s="3" t="s">
-        <v>47</v>
+      <c r="L20" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="M20" s="5" t="s">
+        <v>45</v>
       </c>
       <c r="N20" s="1"/>
-      <c r="O20" s="14" t="s">
-        <v>54</v>
-      </c>
+      <c r="O20" s="13"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="12" t="s">
@@ -1748,37 +1751,37 @@
         <v>4</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>41</v>
+        <v>75</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="I21" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="J21" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="K21" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="L21" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="M21" s="1" t="s">
-        <v>48</v>
+        <v>7</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H21" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="I21" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="J21" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="K21" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="L21" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="M21" s="5" t="s">
+        <v>45</v>
       </c>
       <c r="N21" s="1"/>
       <c r="O21" s="13"/>
@@ -1790,14 +1793,14 @@
       <c r="B22" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C22" s="1" t="s">
-        <v>41</v>
+      <c r="C22" s="4" t="s">
+        <v>39</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>19</v>
@@ -1809,7 +1812,7 @@
         <v>22</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="J22" s="1" t="s">
         <v>21</v>
@@ -1821,7 +1824,7 @@
         <v>22</v>
       </c>
       <c r="M22" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N22" s="1"/>
       <c r="O22" s="13"/>
@@ -1834,26 +1837,40 @@
         <v>4</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
-      <c r="I23" s="2"/>
-      <c r="J23" s="2"/>
-      <c r="K23" s="2"/>
-      <c r="L23" s="2"/>
-      <c r="M23" s="2"/>
+        <v>10</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="L23" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M23" s="1" t="s">
+        <v>46</v>
+      </c>
       <c r="N23" s="1"/>
-      <c r="O23" s="13" t="s">
-        <v>68</v>
-      </c>
+      <c r="O23" s="13"/>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="12" t="s">
@@ -1863,13 +1880,13 @@
         <v>4</v>
       </c>
       <c r="C24" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D24" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D24" s="1" t="s">
-        <v>52</v>
-      </c>
       <c r="E24" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
@@ -1881,208 +1898,208 @@
       <c r="M24" s="2"/>
       <c r="N24" s="1"/>
       <c r="O24" s="13" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="15" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A25" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="B25" s="16" t="s">
+      <c r="B25" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C25" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="D25" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="E25" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="F25" s="17"/>
-      <c r="G25" s="17"/>
-      <c r="H25" s="17"/>
-      <c r="I25" s="17"/>
-      <c r="J25" s="17"/>
-      <c r="K25" s="17"/>
-      <c r="L25" s="17"/>
-      <c r="M25" s="17"/>
-      <c r="N25" s="16"/>
+      <c r="C25" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+      <c r="K25" s="2"/>
+      <c r="L25" s="2"/>
+      <c r="M25" s="2"/>
+      <c r="N25" s="1"/>
       <c r="O25" s="13" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A26" s="21" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="B26" s="9" t="s">
+      <c r="B26" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C26" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="D26" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="E26" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="F26" s="16"/>
+      <c r="G26" s="16"/>
+      <c r="H26" s="16"/>
+      <c r="I26" s="16"/>
+      <c r="J26" s="16"/>
+      <c r="K26" s="16"/>
+      <c r="L26" s="16"/>
+      <c r="M26" s="16"/>
+      <c r="N26" s="15"/>
+      <c r="O26" s="13" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="B27" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C26" s="10" t="s">
+      <c r="C27" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D26" s="10" t="s">
+      <c r="D27" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="E26" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="F26" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="G26" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="H26" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="I26" s="30" t="s">
-        <v>72</v>
-      </c>
-      <c r="J26" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="K26" s="10" t="s">
+      <c r="E27" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="F27" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="G27" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="H27" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="I27" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="J27" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="K27" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="L26" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="M26" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="N26" s="10"/>
-      <c r="O26" s="11"/>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A27" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="B27" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E27" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
-      <c r="H27" s="1"/>
-      <c r="I27" s="1"/>
-      <c r="J27" s="1"/>
-      <c r="K27" s="1"/>
-      <c r="L27" s="1"/>
-      <c r="M27" s="1"/>
-      <c r="N27" s="1"/>
-      <c r="O27" s="13"/>
+      <c r="L27" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="M27" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="N27" s="10"/>
+      <c r="O27" s="11"/>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A28" s="22" t="s">
+      <c r="A28" s="21" t="s">
         <v>3</v>
       </c>
       <c r="B28" s="12" t="s">
         <v>5</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E28" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E28" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="F28" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G28" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="H28" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="I28" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="J28" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="K28" s="3" t="s">
+      <c r="F28" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="G28" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="H28" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="I28" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="J28" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="K28" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="L28" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="M28" s="3" t="s">
-        <v>47</v>
+      <c r="L28" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="M28" s="32" t="s">
+        <v>45</v>
       </c>
       <c r="N28" s="1"/>
-      <c r="O28" s="14" t="s">
-        <v>58</v>
-      </c>
+      <c r="O28" s="13"/>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A29" s="22" t="s">
+      <c r="A29" s="21" t="s">
         <v>3</v>
       </c>
       <c r="B29" s="12" t="s">
         <v>5</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E29" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E29" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="F29" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G29" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H29" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="I29" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="J29" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="K29" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="L29" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="M29" s="1" t="s">
-        <v>48</v>
+      <c r="F29" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G29" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H29" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="I29" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="J29" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="K29" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="L29" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="M29" s="5" t="s">
+        <v>45</v>
       </c>
       <c r="N29" s="1"/>
       <c r="O29" s="13"/>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A30" s="22" t="s">
+      <c r="A30" s="21" t="s">
         <v>3</v>
       </c>
       <c r="B30" s="12" t="s">
         <v>5</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E30" s="4" t="s">
         <v>36</v>
@@ -2097,7 +2114,7 @@
         <v>22</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="J30" s="1" t="s">
         <v>21</v>
@@ -2109,104 +2126,112 @@
         <v>22</v>
       </c>
       <c r="M30" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N30" s="1"/>
       <c r="O30" s="13"/>
     </row>
-    <row r="31" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="23" t="s">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A31" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="B31" s="15" t="s">
+      <c r="B31" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C31" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="D31" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="E31" s="20" t="s">
+      <c r="C31" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E31" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="F31" s="17"/>
-      <c r="G31" s="17"/>
-      <c r="H31" s="17"/>
-      <c r="I31" s="17"/>
-      <c r="J31" s="17"/>
-      <c r="K31" s="17"/>
-      <c r="L31" s="17"/>
-      <c r="M31" s="17"/>
-      <c r="N31" s="16"/>
-      <c r="O31" s="18" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A32" s="24" t="s">
+      <c r="F31" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K31" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="L31" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M31" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="N31" s="1"/>
+      <c r="O31" s="13"/>
+    </row>
+    <row r="32" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="B32" s="9" t="s">
+      <c r="B32" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C32" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="D32" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="E32" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="F32" s="16"/>
+      <c r="G32" s="16"/>
+      <c r="H32" s="16"/>
+      <c r="I32" s="16"/>
+      <c r="J32" s="16"/>
+      <c r="K32" s="16"/>
+      <c r="L32" s="16"/>
+      <c r="M32" s="16"/>
+      <c r="N32" s="15"/>
+      <c r="O32" s="17" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A33" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="B33" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C32" s="10" t="s">
+      <c r="C33" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D32" s="10" t="s">
+      <c r="D33" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="E32" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="F32" s="10"/>
-      <c r="G32" s="10"/>
-      <c r="H32" s="10"/>
-      <c r="I32" s="10"/>
-      <c r="J32" s="10"/>
-      <c r="K32" s="10"/>
-      <c r="L32" s="10"/>
-      <c r="M32" s="10"/>
-      <c r="N32" s="10"/>
-      <c r="O32" s="11"/>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A33" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="B33" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G33" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H33" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="I33" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="J33" s="1"/>
-      <c r="K33" s="1"/>
-      <c r="L33" s="1"/>
-      <c r="M33" s="1"/>
-      <c r="N33" s="1"/>
-      <c r="O33" s="13"/>
+      <c r="E33" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="F33" s="10"/>
+      <c r="G33" s="10"/>
+      <c r="H33" s="10"/>
+      <c r="I33" s="10"/>
+      <c r="J33" s="10"/>
+      <c r="K33" s="10"/>
+      <c r="L33" s="10"/>
+      <c r="M33" s="10"/>
+      <c r="N33" s="10"/>
+      <c r="O33" s="11"/>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A34" s="25" t="s">
+      <c r="A34" s="24" t="s">
         <v>3</v>
       </c>
       <c r="B34" s="12" t="s">
@@ -2216,10 +2241,10 @@
         <v>8</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F34" s="1" t="s">
         <v>19</v>
@@ -2230,26 +2255,18 @@
       <c r="H34" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="I34" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="J34" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="K34" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="L34" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="M34" s="1" t="s">
-        <v>60</v>
-      </c>
+      <c r="I34" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="J34" s="1"/>
+      <c r="K34" s="1"/>
+      <c r="L34" s="1"/>
+      <c r="M34" s="1"/>
       <c r="N34" s="1"/>
       <c r="O34" s="13"/>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A35" s="25" t="s">
+      <c r="A35" s="24" t="s">
         <v>3</v>
       </c>
       <c r="B35" s="12" t="s">
@@ -2259,10 +2276,10 @@
         <v>8</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F35" s="1" t="s">
         <v>19</v>
@@ -2274,7 +2291,7 @@
         <v>22</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="J35" s="1" t="s">
         <v>21</v>
@@ -2286,66 +2303,74 @@
         <v>22</v>
       </c>
       <c r="M35" s="1" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="N35" s="1"/>
       <c r="O35" s="13"/>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A36" s="25" t="s">
+      <c r="A36" s="24" t="s">
         <v>3</v>
       </c>
       <c r="B36" s="12" t="s">
         <v>6</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>61</v>
+        <v>8</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="F36" s="1"/>
-      <c r="G36" s="1"/>
-      <c r="H36" s="1"/>
-      <c r="I36" s="1"/>
-      <c r="J36" s="1"/>
-      <c r="K36" s="1"/>
-      <c r="L36" s="1"/>
-      <c r="M36" s="1"/>
+        <v>37</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J36" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K36" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="L36" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M36" s="1" t="s">
+        <v>55</v>
+      </c>
       <c r="N36" s="1"/>
       <c r="O36" s="13"/>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A37" s="25" t="s">
+      <c r="A37" s="24" t="s">
         <v>3</v>
       </c>
       <c r="B37" s="12" t="s">
         <v>6</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G37" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H37" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="I37" s="5" t="s">
-        <v>23</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="1"/>
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
       <c r="L37" s="1"/>
@@ -2354,20 +2379,20 @@
       <c r="O37" s="13"/>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A38" s="25" t="s">
+      <c r="A38" s="24" t="s">
         <v>3</v>
       </c>
       <c r="B38" s="12" t="s">
         <v>6</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="F38" s="1" t="s">
         <v>19</v>
@@ -2378,39 +2403,31 @@
       <c r="H38" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="I38" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="J38" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="K38" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="L38" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="M38" s="1" t="s">
-        <v>63</v>
-      </c>
+      <c r="I38" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="J38" s="1"/>
+      <c r="K38" s="1"/>
+      <c r="L38" s="1"/>
+      <c r="M38" s="1"/>
       <c r="N38" s="1"/>
       <c r="O38" s="13"/>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A39" s="25" t="s">
+      <c r="A39" s="24" t="s">
         <v>3</v>
       </c>
       <c r="B39" s="12" t="s">
         <v>6</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="F39" s="1" t="s">
         <v>19</v>
@@ -2422,7 +2439,7 @@
         <v>22</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="J39" s="1" t="s">
         <v>21</v>
@@ -2434,87 +2451,130 @@
         <v>22</v>
       </c>
       <c r="M39" s="1" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="N39" s="1"/>
       <c r="O39" s="13"/>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A40" s="25" t="s">
+      <c r="A40" s="24" t="s">
         <v>3</v>
       </c>
       <c r="B40" s="12" t="s">
         <v>6</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="E40" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="F40" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G40" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="H40" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="I40" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="J40" s="3"/>
-      <c r="K40" s="3"/>
-      <c r="L40" s="3"/>
-      <c r="M40" s="3"/>
+        <v>10</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I40" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J40" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K40" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="L40" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M40" s="1" t="s">
+        <v>58</v>
+      </c>
       <c r="N40" s="1"/>
-      <c r="O40" s="13" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="41" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="25" t="s">
+      <c r="O40" s="13"/>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A41" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="B41" s="15" t="s">
+      <c r="B41" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C41" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="D41" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="E41" s="6" t="s">
+      <c r="C41" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G41" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H41" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I41" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="J41" s="3"/>
+      <c r="K41" s="3"/>
+      <c r="L41" s="3"/>
+      <c r="M41" s="3"/>
+      <c r="N41" s="1"/>
+      <c r="O41" s="13" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="B42" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C42" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="D42" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="E42" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="F41" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="G41" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="H41" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="I41" s="27" t="s">
-        <v>74</v>
-      </c>
-      <c r="J41" s="27"/>
-      <c r="K41" s="27"/>
-      <c r="L41" s="27"/>
-      <c r="M41" s="27"/>
-      <c r="N41" s="16"/>
-      <c r="O41" s="31" t="s">
-        <v>76</v>
+      <c r="F42" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H42" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="I42" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="J42" s="25"/>
+      <c r="K42" s="25"/>
+      <c r="L42" s="25"/>
+      <c r="M42" s="25"/>
+      <c r="N42" s="15"/>
+      <c r="O42" s="27" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:O41" xr:uid="{85A6AFA5-2888-4BBB-AD94-1D6F8D348DE8}">
+  <autoFilter ref="A1:O42" xr:uid="{85A6AFA5-2888-4BBB-AD94-1D6F8D348DE8}">
     <filterColumn colId="0" showButton="0"/>
   </autoFilter>
   <mergeCells count="1">
